--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelThamDinhGia.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelThamDinhGia.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB\ASP\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D038AE-C0C1-4830-B01E-1FDE9B6546D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58109E27-E122-43DF-8D8E-0AA2DA3B4C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="181029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -116,14 +116,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -144,7 +144,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -161,7 +161,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -174,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -197,11 +197,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -229,7 +238,8 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -546,272 +556,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="64" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.75" style="13" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6">
+        <v>16100</v>
+      </c>
+      <c r="I3" s="6">
+        <v>16013</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6">
-        <v>16100</v>
+        <v>22286</v>
       </c>
       <c r="I4" s="6">
-        <v>16013</v>
+        <v>21786</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="6">
-        <v>22286</v>
+        <v>58000</v>
       </c>
       <c r="I5" s="6">
-        <v>21786</v>
+        <v>58857</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3"/>
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="6">
-        <v>58000</v>
+        <v>121143</v>
       </c>
       <c r="I6" s="6">
-        <v>58857</v>
+        <v>123857</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="6">
-        <v>121143</v>
+        <v>256125</v>
       </c>
       <c r="I7" s="6">
-        <v>123857</v>
+        <v>258938</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="6">
-        <v>256125</v>
+        <v>219286</v>
       </c>
       <c r="I8" s="6">
-        <v>258938</v>
+        <v>224857</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="6">
-        <v>219286</v>
+        <v>106250</v>
       </c>
       <c r="I9" s="6">
-        <v>224857</v>
+        <v>111250</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="6">
-        <v>106250</v>
+        <v>67625</v>
       </c>
       <c r="I10" s="6">
-        <v>111250</v>
+        <v>67938</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>8</v>
+      <c r="A11" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="6">
-        <v>67625</v>
+        <v>147357</v>
       </c>
       <c r="I11" s="6">
-        <v>67938</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="6">
-        <v>147357</v>
-      </c>
-      <c r="I12" s="6">
         <v>156857</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="G3:I1048576" xr:uid="{5005CB18-0B07-49B6-8B0B-A7E756778C1E}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
